--- a/JPetStore Performance  End-to-End.xlsx
+++ b/JPetStore Performance  End-to-End.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27A716A3-2C5F-410A-B13E-6812FBA808EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E49848E5-FF88-4DC7-8FD4-E0698F5E7F5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Implementing Test Design</t>
   </si>
   <si>
-    <t>Not Completed</t>
-  </si>
-  <si>
     <t>SLA(secs)</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
   </si>
   <si>
     <t>Users in %</t>
-  </si>
-  <si>
-    <t>300 Total Users</t>
   </si>
   <si>
     <t xml:space="preserve">https://jpetstore.aspectran.com/categories/${}
@@ -429,6 +423,12 @@
   </si>
   <si>
     <t>Sign Out</t>
+  </si>
+  <si>
+    <t>200 Total Users</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,7 +534,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -835,17 +834,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,7 +880,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,15 +896,15 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8146465-9AAB-40AE-A4FF-26CE6F105B58}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,31 +986,31 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1023,10 +1022,10 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,15 +1039,15 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1060,160 +1059,160 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1225,137 +1224,137 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
         <v>127</v>
       </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
         <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,21 +1362,21 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,68 +1393,68 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>82</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>83</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>84</v>
-      </c>
-      <c r="G42" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>87</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
         <v>91</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1472,10 +1471,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
         <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
       </c>
       <c r="E51" s="5">
         <f>3600/31</f>
@@ -1484,7 +1483,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="5">
         <f>3600*10/31</f>
@@ -1493,7 +1492,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="5">
         <f>3600*100/31</f>
@@ -1515,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AF23B5-7B74-4896-86F8-A495DFE34089}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,15 +1543,15 @@
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>25</v>
+      <c r="C5" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,10 +1559,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,39 +1570,39 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,28 +1610,28 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1640,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -1648,21 +1647,21 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/JPetStore Performance  End-to-End.xlsx
+++ b/JPetStore Performance  End-to-End.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E49848E5-FF88-4DC7-8FD4-E0698F5E7F5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{434D2321-9EAE-4D3D-9AA4-461893BC1C4C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
   <si>
     <t xml:space="preserve">Application </t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Silas Francis</t>
   </si>
 </sst>
 </file>
@@ -817,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,6 +849,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
       <c r="D4" t="s">
         <v>99</v>
       </c>
@@ -967,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8146465-9AAB-40AE-A4FF-26CE6F105B58}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
